--- a/PreSettings.xlsx
+++ b/PreSettings.xlsx
@@ -55,7 +55,7 @@
     <t>ApkPath</t>
   </si>
   <si>
-    <t>\\Apk\\V_2\\JAK_Customer.apk</t>
+    <t>/Apk/V_2/JAK_Customer.apk</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1" display="\\Apk\\V_2\\JAK_Customer.apk"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/PreSettings.xlsx
+++ b/PreSettings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DeviceName</t>
   </si>
@@ -49,19 +49,25 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://127.0.0.1:4723/wd/hub</t>
-  </si>
-  <si>
     <t>ApkPath</t>
   </si>
   <si>
     <t>/Apk/V_2/JAK_Customer.apk</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:4725/wd/hub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -129,6 +135,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -433,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,10 +463,11 @@
     <col min="5" max="5" width="54.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="19.42578125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -471,10 +487,13 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -490,18 +509,22 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="7">
+        <v>8699494398</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="\\Apk\\V_2\\JAK_Customer.apk"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>